--- a/Data_files/Part_1/Randstad_car_distance.xlsx
+++ b/Data_files/Part_1/Randstad_car_distance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimEW\PycharmProjects\Design_in_Network_group_8\Data_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimEW\PycharmProjects\Design_in_Network_group_8\Data_files\Part_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D418A653-4E9E-4883-BE17-E2ED1168CA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0533A6D5-5350-4718-853C-95DD175271FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -120,9 +120,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>Cities</t>
-  </si>
-  <si>
     <t>Den Haag</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>Schiedam</t>
+  </si>
+  <si>
+    <t>Locations</t>
   </si>
 </sst>
 </file>
@@ -607,15 +607,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -636,7 +634,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>6</v>
@@ -657,10 +655,10 @@
         <v>11</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>12</v>
@@ -1118,7 +1116,7 @@
     </row>
     <row r="8" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>19</v>
@@ -1622,7 +1620,7 @@
     </row>
     <row r="15" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>19</v>
@@ -1694,7 +1692,7 @@
     </row>
     <row r="16" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>19</v>
@@ -2273,21 +2271,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000967D3B9FC1DD84EB00B55E5790AB85E" ma:contentTypeVersion="4" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="92ec66a21d0d7142cf1fb1ae8fa08641">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6ba023f1-a19b-4eec-904c-052d1f1cb5e0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="62a86672aac255264bf3f3decc56659c" ns2:_="">
     <xsd:import namespace="6ba023f1-a19b-4eec-904c-052d1f1cb5e0"/>
@@ -2431,31 +2414,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23E64ACF-5BE2-4A52-BEE2-A3EFBE5BF052}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="6ba023f1-a19b-4eec-904c-052d1f1cb5e0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7665852B-E100-4E7E-A79C-1252E76F6E8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0489F423-73FF-4800-8190-4AACA39D5277}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2471,4 +2445,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7665852B-E100-4E7E-A79C-1252E76F6E8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23E64ACF-5BE2-4A52-BEE2-A3EFBE5BF052}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="6ba023f1-a19b-4eec-904c-052d1f1cb5e0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>